--- a/pred_ohlcv/54_21/2019-10-29 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 BHP ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>5347.037994910001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>4920.561794910001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4786.787694910001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>4783.987694910001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>4783.987694910001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>4783.987694910001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>4774.187694910001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4764.687694910001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2753.128878390001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2746.828878390001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2765.928878390001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2794.628878390001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2794.628878390001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2794.628878390001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2794.628878390001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-402.6601218799996</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1347.05147563</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1347.05147563</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1329.05147563</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1321.75147563</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1265.751475630001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1230.351475630001</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1230.351475630001</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1259.851475630001</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1243.151475630001</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1243.151475630001</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1234.651475630001</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1234.651475630001</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1237.07083046</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1220.970830460001</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1220.970830460001</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1220.98663046</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1234.78663046</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1234.78663046</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1240.08663046</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1254.38663046</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1260.98663046</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1251.68663046</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1251.68663046</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1251.68663046</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1251.68663046</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1251.68663046</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1251.68663046</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1251.68663046</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>732.4866304600004</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>732.4866304600004</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>715.2866304600003</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-191.3133695399997</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-191.3133695399997</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-191.3133695399997</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-165.0133695399997</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>673.6307256600003</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>2420.229730460001</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>2420.229730460001</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>2420.229730460001</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>2211.129730460001</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>2182.92973046</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>2182.92973046</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>2190.329730460001</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>466.46153046</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>466.46153046</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-684.82577786</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-684.82577786</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-664.5257778600001</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-666.4426925100001</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-666.4426925100001</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 BHP ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>5347.037994910001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>4920.561794910001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4786.787694910001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>4783.987694910001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>4783.987694910001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>4783.987694910001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>4774.187694910001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2746.828878390001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2765.928878390001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2794.628878390001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2794.628878390001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2794.628878390001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2794.628878390001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-441.4601218799996</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-441.4601218799996</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-441.4601218799996</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-441.4601218799996</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-441.4601218799996</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-441.4601218799996</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-423.0601218799996</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-415.1601218799996</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-415.1601218799996</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-415.1601218799996</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-415.1601218799996</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-415.1601218799996</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-420.3601218799996</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-426.7601218799996</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-402.6601218799996</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-402.6601218799996</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-401.8837243699996</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1347.05147563</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1347.05147563</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1329.05147563</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1321.75147563</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1265.751475630001</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1230.351475630001</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1230.351475630001</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1230.351475630001</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1234.651475630001</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1234.651475630001</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1234.651475630001</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1237.07083046</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1220.970830460001</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1220.970830460001</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1220.970830460001</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1240.08663046</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1240.08663046</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1240.08663046</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1240.08663046</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1254.38663046</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1254.38663046</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1254.38663046</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1254.38663046</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1254.38663046</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1254.38663046</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1254.38663046</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1254.38663046</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1254.38663046</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1260.78663046</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1256.08663046</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1256.08663046</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1256.08663046</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1256.08663046</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1256.18663046</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1254.68663046</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1260.98663046</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-190.2133695399997</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-165.0133695399997</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>673.6307256600003</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>2420.229730460001</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>2420.229730460001</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>2182.92973046</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>2182.92973046</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>2190.329730460001</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>466.46153046</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>466.46153046</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-515.86616544</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-427.29097165</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-427.29097165</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-427.29097165</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-436.89097165</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-436.89097165</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-436.89097165</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-436.89097165</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-446.6909716500001</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-446.6909716500001</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-446.6909716500001</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-446.6909716500001</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-434.09097165</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-434.09097165</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-431.51577786</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-438.31577786</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-438.31577786</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-438.31577786</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-438.31577786</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-438.31577786</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-438.31577786</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-438.31577786</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-649.6189778600001</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-637.5189778600001</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-649.5886778600001</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-651.38867786</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-670.18867786</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-680.08867786</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-680.08867786</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-666.8886778599999</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-666.5257778599999</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-675.5257778599999</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-675.5257778599999</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-677.22577786</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-689.42577786</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-689.42577786</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-689.42577786</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-689.42577786</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-689.42577786</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-689.42577786</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-689.42577786</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-697.5257778600001</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-697.5257778600001</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-681.92577786</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-681.92577786</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-681.92577786</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-681.92577786</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-684.82577786</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-684.82577786</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-684.82577786</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-666.0257778600001</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-666.0257778600001</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-664.5257778600001</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-663.7426925100001</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-666.4426925100001</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-666.4426925100001</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-653.2426925100001</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-641.4426925100001</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-641.4426925100001</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-661.3426925100001</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-661.3426925100001</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-666.3426925100001</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-666.3426925100001</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-666.3426925100001</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-666.3426925100001</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-633.3426925100001</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-633.3426925100001</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-637.1426925100001</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-637.1426925100001</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-637.1426925100001</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-637.1426925100001</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-637.1426925100001</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-637.1426925100001</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-631.5426925100001</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-631.5426925100001</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-625.6426925100001</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-634.2426925100001</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-634.2426925100001</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-634.2426925100001</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-634.2426925100001</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-634.2426925100001</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-634.2426925100001</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-628.3426925100001</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-628.3426925100001</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-614.5426925100002</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-614.5426925100002</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-614.5426925100002</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-614.5426925100002</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-614.5426925100002</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-614.5426925100002</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-614.5426925100002</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-614.5426925100002</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-612.4426925100001</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-631.5426925100002</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-631.5426925100002</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-631.5426925100002</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-631.5426925100002</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-631.5426925100002</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-631.5426925100002</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-631.5426925100002</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-564.6396925100001</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-537.2396925100002</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-537.2396925100002</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-537.2396925100002</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-537.2396925100002</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-546.9396925100002</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-546.9396925100002</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-546.9396925100002</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-546.9396925100002</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-527.3619925100002</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-527.3619925100002</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-527.3619925100002</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-532.6619925100001</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-532.6619925100001</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-532.6619925100001</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-486.1371925100001</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-486.1371925100001</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-486.1371925100001</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-486.1371925100001</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-485.9283925100001</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-489.1283925100001</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-489.1283925100001</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-489.1283925100001</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-489.1283925100001</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-489.1283925100001</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-489.1283925100001</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-489.1283925100001</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-489.1283925100001</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-489.1283925100001</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-489.1283925100001</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-489.1283925100001</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-489.1283925100001</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-499.0283925100001</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-498.7653925100001</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-502.7653925100001</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-501.7653925100001</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-501.7653925100001</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-494.5653925100001</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-498.1653925100001</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-499.8653925100001</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-496.3653925100001</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-496.3653925100001</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-501.6653925100001</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-501.6653925100001</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-500.0653925100001</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-500.0653925100001</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-501.5653925100001</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-493.1653925100001</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-461.8653925100001</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-465.6653925100001</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-473.1653925100001</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-466.6653925100001</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-464.1653925100001</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-462.3653925100001</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-461.2653925100001</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-469.9653925100001</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-469.9653925100001</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-469.9653925100001</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-467.7653925100001</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-477.1653925100001</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-476.9413925100001</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-500.1413925100001</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-500.1413925100001</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-500.1413925100001</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-500.1413925100001</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
